--- a/Datos.xlsx
+++ b/Datos.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/3c64827ed26d563e/Pruebas Python/Relevamiento FC Monotributo/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Supervisor\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="27" documentId="11_AD4D2F04E46CFB4ACB3E20AD3591FC08693EDF12" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{FF34088D-8C84-48ED-9AD9-FCE42F89C0FF}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B091C762-074E-4C9D-AD2B-6AC0E558E78A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -42,10 +42,10 @@
     <t xml:space="preserve">RAZON SOCIAL </t>
   </si>
   <si>
-    <t>Desde</t>
-  </si>
-  <si>
-    <t>Hasta</t>
+    <t>desde</t>
+  </si>
+  <si>
+    <t>hasta</t>
   </si>
 </sst>
 </file>
@@ -392,7 +392,7 @@
   <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
